--- a/SalesforceCloud/data/AccountName.xlsx
+++ b/SalesforceCloud/data/AccountName.xlsx
@@ -356,7 +356,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
